--- a/biology/Botanique/Schlumbergera_russelliana/Schlumbergera_russelliana.xlsx
+++ b/biology/Botanique/Schlumbergera_russelliana/Schlumbergera_russelliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schlumbergera russelliana est une espèce de plantes à fleurs de la famille des Cactaceae. C'est une plante succulente endémique de la région de Rio de Janeiro au Brésil. Elle est souvent appelée "Cactus de Noël", nom qui s'applique aussi à d'autres espèces du genre Schlumbergera et aux hybrides et cultivars issus de ces espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tiges de Schlumbergera russelliana sont composées de segments (cladodes) aplatis. Contrairement à Schlumbergera truncata les cladodes de Schlumbergera russelliana n'ont pas de dents mais des côtés arrondis. 
 Chaque cladode se termine par une aréole à partir de laquelle poussent les nouvelles cladodes et les fleurs.
@@ -545,7 +559,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'état sauvage Schlumbergera russelliana est endémique de la région de Rio de Janeiro au Brésil, qui fait partie de la forêt atlantique. Seulement 3 stations sont connues. L'espèce est épiphyte et pousse entre 1300 et 2000 mètres d'altitude. Elle est cultivée comme plante ornementale mais demeure plus difficile à entretenir que les  hybrides qui en sont issus.
 </t>
